--- a/BRAF-variants-prioritized-dm-columns.xlsx
+++ b/BRAF-variants-prioritized-dm-columns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI2021/variants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6C46D3-2D3D-4448-AF0A-75A94857451E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98A61E7-EDDA-FD49-BF84-A4557C85494B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1480" windowWidth="26240" windowHeight="24120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="740" windowWidth="26240" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variants" sheetId="3" r:id="rId1"/>
@@ -5412,7 +5412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5539,6 +5539,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Liberation Sans"/>
     </font>
   </fonts>
   <fills count="17">
@@ -5699,7 +5705,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5716,6 +5722,9 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6099,8 +6108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="O22" workbookViewId="0">
+      <selection activeCell="AK47" sqref="AK47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6345,7 +6354,7 @@
       <c r="AG2" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AK2" s="16">
         <v>1</v>
       </c>
       <c r="AL2" s="4" t="s">
@@ -6449,7 +6458,7 @@
       <c r="AG3" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AK3" s="16">
         <v>1</v>
       </c>
       <c r="AL3" s="4" t="s">
@@ -6773,7 +6782,7 @@
       <c r="AJ6" s="6" t="s">
         <v>1580</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AK6" s="17">
         <v>1</v>
       </c>
       <c r="AL6" s="6" t="s">
@@ -10494,7 +10503,7 @@
       <c r="AJ41" s="8" t="s">
         <v>1588</v>
       </c>
-      <c r="AK41" s="8">
+      <c r="AK41" s="18">
         <v>1</v>
       </c>
       <c r="AL41" s="8" t="s">
@@ -11059,7 +11068,7 @@
       <c r="AJ46" s="8" t="s">
         <v>1585</v>
       </c>
-      <c r="AK46" s="8">
+      <c r="AK46" s="18">
         <v>1</v>
       </c>
       <c r="AL46" s="8" t="s">
@@ -11175,7 +11184,7 @@
       <c r="AJ47" s="8" t="s">
         <v>1582</v>
       </c>
-      <c r="AK47" s="8">
+      <c r="AK47" s="18">
         <v>1</v>
       </c>
       <c r="AL47" s="8" t="s">
